--- a/sentiment/weekly/20250310-20250314.xlsx
+++ b/sentiment/weekly/20250310-20250314.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\data\project\2025\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87326B2B-3E50-444E-B272-0FFC71200B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FFB306-32B5-4026-B8B2-6F0BDF5BCBD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10710" yWindow="0" windowWidth="10980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>类别</t>
   </si>
@@ -790,13 +790,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1087,9 @@
       <c r="D24" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F24" t="s">
         <v>28</v>
       </c>
@@ -1190,56 +1193,49 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>